--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
@@ -842,13 +842,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Feuil1"/>
+      <sheetName val="Menu"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <definedNames>
       <definedName name="qlSerializationPath"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1145,7 +1147,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1164,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1231,7 +1233,7 @@
       </c>
       <c r="D8" s="35" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="25"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
@@ -17,9 +17,6 @@
     <sheet name="6M (2)" sheetId="22" r:id="rId8"/>
     <sheet name="1Y (2)" sheetId="23" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -58,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="88">
   <si>
     <t>Currency</t>
   </si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -838,24 +838,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Menu"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1231,9 +1213,8 @@
       <c r="C8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="35" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="E8" s="25"/>
     </row>
@@ -1497,7 +1478,7 @@
       </c>
       <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -1522,7 +1503,7 @@
       </c>
       <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>qlLibor - Unhandled currency HKD</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -3575,7 +3556,7 @@
       </c>
       <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -3600,7 +3581,7 @@
       </c>
       <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>qlLibor - Unhandled currency HKD</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -5653,7 +5634,7 @@
       </c>
       <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -5678,7 +5659,7 @@
       </c>
       <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>qlLibor - Unhandled currency HKD</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -7688,7 +7669,7 @@
       </c>
       <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -7713,7 +7694,7 @@
       </c>
       <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>qlLibor - Unhandled currency HKD</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -9718,9 +9699,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="M3" s="42" t="e">
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -9743,9 +9724,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -9808,9 +9789,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -9858,9 +9839,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="e">
+      <c r="M7" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -9908,9 +9889,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="e">
+      <c r="M8" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -9958,9 +9939,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="e">
+      <c r="M9" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -10008,9 +9989,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -10067,9 +10048,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -10126,9 +10107,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -10185,9 +10166,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -10244,9 +10225,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -10303,9 +10284,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -10356,9 +10337,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -10406,9 +10387,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -10456,9 +10437,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -10506,9 +10487,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -10556,9 +10537,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -10606,9 +10587,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -10656,9 +10637,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -10706,9 +10687,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -10756,9 +10737,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -10806,9 +10787,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -10856,9 +10837,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -10906,9 +10887,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -10956,9 +10937,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -11006,9 +10987,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -11056,9 +11037,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -11106,9 +11087,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -11156,9 +11137,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -11206,9 +11187,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -11256,9 +11237,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -11306,9 +11287,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -11356,9 +11337,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -11406,9 +11387,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -11456,9 +11437,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -11506,9 +11487,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -11556,9 +11537,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -11606,9 +11587,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -11656,9 +11637,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -11796,9 +11777,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="M3" s="42" t="e">
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -11821,9 +11802,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -11886,9 +11867,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -11936,9 +11917,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="e">
+      <c r="M7" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -11986,9 +11967,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="e">
+      <c r="M8" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -12036,9 +12017,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="e">
+      <c r="M9" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -12086,9 +12067,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -12145,9 +12126,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -12204,9 +12185,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -12263,9 +12244,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -12322,9 +12303,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -12381,9 +12362,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -12434,9 +12415,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -12484,9 +12465,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -12534,9 +12515,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -12584,9 +12565,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -12634,9 +12615,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -12684,9 +12665,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -12734,9 +12715,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -12784,9 +12765,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -12834,9 +12815,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -12884,9 +12865,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -12934,9 +12915,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -12984,9 +12965,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -13034,9 +13015,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -13084,9 +13065,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -13134,9 +13115,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -13184,9 +13165,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -13234,9 +13215,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -13284,9 +13265,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -13334,9 +13315,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -13384,9 +13365,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -13434,9 +13415,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -13484,9 +13465,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -13534,9 +13515,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -13584,9 +13565,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -13634,9 +13615,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -13684,9 +13665,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -13734,9 +13715,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -13874,9 +13855,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="M3" s="42" t="e">
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -13899,9 +13880,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -13963,9 +13944,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -14150,9 +14131,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -14208,9 +14189,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -14266,9 +14247,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -14324,9 +14305,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -14382,9 +14363,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -14440,9 +14421,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -14492,9 +14473,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -14541,9 +14522,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -14590,9 +14571,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -14639,9 +14620,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -14688,9 +14669,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -14737,9 +14718,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -14786,9 +14767,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -14835,9 +14816,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -14884,9 +14865,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -14933,9 +14914,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -14982,9 +14963,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -15031,9 +15012,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -15080,9 +15061,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -15129,9 +15110,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -15178,9 +15159,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -15227,9 +15208,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -15276,9 +15257,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -15325,9 +15306,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -15374,9 +15355,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -15423,9 +15404,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -15472,9 +15453,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -15521,9 +15502,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -15570,9 +15551,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -15619,9 +15600,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -15668,9 +15649,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -15717,9 +15698,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -15766,9 +15747,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -15905,9 +15886,9 @@
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
         <v>#NUM!</v>
       </c>
-      <c r="M3" s="42" t="e">
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -15930,9 +15911,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -15994,9 +15975,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -16181,9 +16162,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -16239,9 +16220,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -16297,9 +16278,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -16355,9 +16336,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -16413,9 +16394,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -16471,9 +16452,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -16523,9 +16504,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -16572,9 +16553,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -16621,9 +16602,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -16670,9 +16651,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -16719,9 +16700,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -16768,9 +16749,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -16817,9 +16798,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -16866,9 +16847,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -16915,9 +16896,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -16964,9 +16945,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -17013,9 +16994,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -17062,9 +17043,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -17111,9 +17092,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -17160,9 +17141,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -17209,9 +17190,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -17258,9 +17239,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -17307,9 +17288,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -17356,9 +17337,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -17405,9 +17386,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -17454,9 +17435,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -17503,9 +17484,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -17552,9 +17533,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -17601,9 +17582,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -17650,9 +17631,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -17699,9 +17680,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -17748,9 +17729,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -17797,9 +17778,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="87">
   <si>
     <t>Currency</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>HKD</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1210,9 @@
       <c r="C8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>87</v>
+      <c r="D8" s="35" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="25"/>
     </row>
@@ -1473,12 +1471,12 @@
         <v>HKD_YC1MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -1501,9 +1499,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -1566,9 +1564,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -1616,9 +1614,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -1666,9 +1664,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -1716,9 +1714,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -1766,9 +1764,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -1825,9 +1823,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -1884,9 +1882,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -1943,9 +1941,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -2002,9 +2000,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -2061,9 +2059,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -2114,9 +2112,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -2164,9 +2162,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -2214,9 +2212,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -2264,9 +2262,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -2314,9 +2312,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -2364,9 +2362,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -2414,9 +2412,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -2464,9 +2462,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -2514,9 +2512,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -2564,9 +2562,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -2614,9 +2612,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -2664,9 +2662,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -2714,9 +2712,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -2764,9 +2762,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -2814,9 +2812,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -2864,9 +2862,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -2914,9 +2912,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -2964,9 +2962,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -3014,9 +3012,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -3064,9 +3062,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -3114,9 +3112,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -3164,9 +3162,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -3214,9 +3212,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -3264,9 +3262,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -3314,9 +3312,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -3364,9 +3362,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -3414,9 +3412,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -3551,12 +3549,12 @@
         <v>HKD_YC3MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -3579,9 +3577,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -3644,9 +3642,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -3694,9 +3692,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -3744,9 +3742,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -3794,9 +3792,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -3844,9 +3842,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -3903,9 +3901,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -3962,9 +3960,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -4021,9 +4019,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -4080,9 +4078,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -4139,9 +4137,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -4192,9 +4190,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -4242,9 +4240,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -4292,9 +4290,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -4342,9 +4340,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -4392,9 +4390,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -4442,9 +4440,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -4492,9 +4490,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -4542,9 +4540,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -4592,9 +4590,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -4642,9 +4640,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -4692,9 +4690,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -4742,9 +4740,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -4792,9 +4790,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -4842,9 +4840,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -4892,9 +4890,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -4942,9 +4940,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -4992,9 +4990,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -5042,9 +5040,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -5092,9 +5090,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -5142,9 +5140,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -5192,9 +5190,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -5242,9 +5240,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -5292,9 +5290,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -5342,9 +5340,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -5392,9 +5390,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -5442,9 +5440,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -5492,9 +5490,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -5629,12 +5627,12 @@
         <v>HKD_YC6MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -5657,9 +5655,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -5721,9 +5719,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -5908,9 +5906,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -5970,9 +5968,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -6028,9 +6026,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -6086,9 +6084,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -6144,9 +6142,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -6202,9 +6200,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -6254,9 +6252,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -6303,9 +6301,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -6352,9 +6350,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -6401,9 +6399,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -6450,9 +6448,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -6499,9 +6497,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -6548,9 +6546,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -6597,9 +6595,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -6646,9 +6644,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -6695,9 +6693,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -6744,9 +6742,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -6793,9 +6791,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -6842,9 +6840,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -6891,9 +6889,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -6940,9 +6938,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -6989,9 +6987,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -7038,9 +7036,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -7087,9 +7085,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -7136,9 +7134,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -7185,9 +7183,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -7234,9 +7232,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -7283,9 +7281,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -7332,9 +7330,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -7381,9 +7379,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -7430,9 +7428,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -7479,9 +7477,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -7528,9 +7526,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -7664,12 +7662,12 @@
         <v>HKD_YC1YRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -7692,9 +7690,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -7756,9 +7754,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -7943,9 +7941,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -8001,9 +7999,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -8059,9 +8057,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -8117,9 +8115,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -8175,9 +8173,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -8233,9 +8231,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -8285,9 +8283,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -8334,9 +8332,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -8383,9 +8381,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -8432,9 +8430,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -8481,9 +8479,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -8530,9 +8528,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -8579,9 +8577,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -8628,9 +8626,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -8677,9 +8675,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -8726,9 +8724,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -8775,9 +8773,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -8824,9 +8822,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -8873,9 +8871,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -8922,9 +8920,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -8971,9 +8969,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -9020,9 +9018,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -9069,9 +9067,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -9118,9 +9116,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -9167,9 +9165,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -9216,9 +9214,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -9265,9 +9263,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -9314,9 +9312,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -9363,9 +9361,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -9412,9 +9410,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -9461,9 +9459,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -9510,9 +9508,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -9559,9 +9557,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -9696,12 +9694,12 @@
         <v>HKD_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -9724,9 +9722,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -9789,9 +9787,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -9839,9 +9837,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -9889,9 +9887,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -9939,9 +9937,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -9989,9 +9987,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -10048,9 +10046,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -10107,9 +10105,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -10166,9 +10164,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -10225,9 +10223,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -10284,9 +10282,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -10337,9 +10335,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -10387,9 +10385,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -10437,9 +10435,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -10487,9 +10485,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -10537,9 +10535,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -10587,9 +10585,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -10637,9 +10635,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -10687,9 +10685,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -10737,9 +10735,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -10787,9 +10785,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -10837,9 +10835,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -10887,9 +10885,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -10937,9 +10935,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -10987,9 +10985,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -11037,9 +11035,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -11087,9 +11085,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -11137,9 +11135,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -11187,9 +11185,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -11237,9 +11235,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -11287,9 +11285,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -11337,9 +11335,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -11387,9 +11385,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -11437,9 +11435,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -11487,9 +11485,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -11537,9 +11535,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -11587,9 +11585,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -11637,9 +11635,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -11774,12 +11772,12 @@
         <v>HKD_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -11802,9 +11800,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -11867,9 +11865,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -11917,9 +11915,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="str">
+      <c r="M7" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -11967,9 +11965,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -12017,9 +12015,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="str">
+      <c r="M9" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -12067,9 +12065,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -12126,9 +12124,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -12185,9 +12183,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -12244,9 +12242,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -12303,9 +12301,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -12362,9 +12360,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -12415,9 +12413,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -12465,9 +12463,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -12515,9 +12513,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -12565,9 +12563,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -12615,9 +12613,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -12665,9 +12663,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -12715,9 +12713,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -12765,9 +12763,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -12815,9 +12813,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -12865,9 +12863,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -12915,9 +12913,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -12965,9 +12963,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -13015,9 +13013,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -13065,9 +13063,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -13115,9 +13113,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -13165,9 +13163,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -13215,9 +13213,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -13265,9 +13263,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -13315,9 +13313,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -13365,9 +13363,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -13415,9 +13413,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -13465,9 +13463,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -13515,9 +13513,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -13565,9 +13563,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -13615,9 +13613,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -13665,9 +13663,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -13715,9 +13713,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -13852,12 +13850,12 @@
         <v>HKD_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -13880,9 +13878,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -13944,9 +13942,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -14131,9 +14129,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -14189,9 +14187,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -14247,9 +14245,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -14305,9 +14303,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -14363,9 +14361,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -14421,9 +14419,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -14473,9 +14471,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -14522,9 +14520,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -14571,9 +14569,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -14620,9 +14618,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -14669,9 +14667,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -14718,9 +14716,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -14767,9 +14765,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -14816,9 +14814,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -14865,9 +14863,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -14914,9 +14912,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -14963,9 +14961,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -15012,9 +15010,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -15061,9 +15059,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -15110,9 +15108,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -15159,9 +15157,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -15208,9 +15206,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -15257,9 +15255,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -15306,9 +15304,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -15355,9 +15353,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -15404,9 +15402,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -15453,9 +15451,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -15502,9 +15500,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -15551,9 +15549,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -15600,9 +15598,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -15649,9 +15647,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -15698,9 +15696,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -15747,9 +15745,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -15883,12 +15881,12 @@
         <v>HKD_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="42" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -15911,9 +15909,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="str">
+      <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -15975,9 +15973,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -16162,9 +16160,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -16220,9 +16218,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -16278,9 +16276,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -16336,9 +16334,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -16394,9 +16392,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -16452,9 +16450,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="str">
+      <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -16504,9 +16502,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -16553,9 +16551,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="str">
+      <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -16602,9 +16600,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -16651,9 +16649,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="str">
+      <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -16700,9 +16698,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -16749,9 +16747,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -16798,9 +16796,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -16847,9 +16845,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -16896,9 +16894,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -16945,9 +16943,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -16994,9 +16992,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -17043,9 +17041,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="str">
+      <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -17092,9 +17090,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -17141,9 +17139,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="str">
+      <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -17190,9 +17188,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -17239,9 +17237,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="str">
+      <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -17288,9 +17286,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -17337,9 +17335,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="str">
+      <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -17386,9 +17384,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -17435,9 +17433,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="str">
+      <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -17484,9 +17482,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -17533,9 +17531,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="str">
+      <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -17582,9 +17580,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -17631,9 +17629,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="str">
+      <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -17680,9 +17678,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -17729,9 +17727,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="str">
+      <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -17778,9 +17776,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N42" s="45"/>
     </row>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_SwapsFromBasis.xlsx
@@ -1143,7 +1143,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D8" s="35" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="25"/>
     </row>
@@ -1471,12 +1471,12 @@
         <v>HKD_YC1MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="42" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -1499,9 +1499,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>qlLibor - Unhandled currency HKD</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -1564,9 +1564,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -1614,9 +1614,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="e">
+      <c r="M7" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -1664,9 +1664,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="e">
+      <c r="M8" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -1714,9 +1714,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="e">
+      <c r="M9" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -1764,9 +1764,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -1823,9 +1823,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -1882,9 +1882,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -1941,9 +1941,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -2000,9 +2000,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -2059,9 +2059,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -2112,9 +2112,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -2162,9 +2162,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -2212,9 +2212,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -2262,9 +2262,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -2312,9 +2312,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -2362,9 +2362,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -2412,9 +2412,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -2462,9 +2462,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -2512,9 +2512,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -2562,9 +2562,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -2612,9 +2612,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -2662,9 +2662,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -2712,9 +2712,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -2762,9 +2762,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -2812,9 +2812,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -2862,9 +2862,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -2912,9 +2912,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -2962,9 +2962,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -3012,9 +3012,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -3062,9 +3062,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -3112,9 +3112,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -3162,9 +3162,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -3212,9 +3212,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -3262,9 +3262,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -3312,9 +3312,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -3362,9 +3362,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -3412,9 +3412,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -3549,12 +3549,12 @@
         <v>HKD_YC3MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="42" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -3577,9 +3577,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>qlLibor - Unhandled currency HKD</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -3642,9 +3642,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -3692,9 +3692,9 @@
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M7" s="42" t="e">
+      <c r="M7" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -3742,9 +3742,9 @@
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M8" s="42" t="e">
+      <c r="M8" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -3792,9 +3792,9 @@
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="42" t="e">
+      <c r="M9" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -3842,9 +3842,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -3901,9 +3901,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -3960,9 +3960,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -4019,9 +4019,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -4078,9 +4078,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -4137,9 +4137,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -4190,9 +4190,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -4240,9 +4240,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -4290,9 +4290,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -4340,9 +4340,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -4390,9 +4390,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -4440,9 +4440,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -4490,9 +4490,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -4540,9 +4540,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -4590,9 +4590,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -4640,9 +4640,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -4690,9 +4690,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -4740,9 +4740,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -4790,9 +4790,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -4840,9 +4840,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -4890,9 +4890,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -4940,9 +4940,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -4990,9 +4990,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -5040,9 +5040,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -5090,9 +5090,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -5140,9 +5140,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -5190,9 +5190,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -5240,9 +5240,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -5290,9 +5290,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -5340,9 +5340,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -5390,9 +5390,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -5440,9 +5440,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -5490,9 +5490,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -5627,12 +5627,12 @@
         <v>HKD_YC6MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="42" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -5655,9 +5655,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>qlLibor - Unhandled currency HKD</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -5719,9 +5719,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -5906,9 +5906,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -5968,9 +5968,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -6026,9 +6026,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -6084,9 +6084,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -6142,9 +6142,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -6200,9 +6200,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -6252,9 +6252,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -6301,9 +6301,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -6350,9 +6350,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -6399,9 +6399,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -6448,9 +6448,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -6497,9 +6497,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -6546,9 +6546,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -6595,9 +6595,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -6644,9 +6644,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -6693,9 +6693,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -6742,9 +6742,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -6791,9 +6791,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -6840,9 +6840,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -6889,9 +6889,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -6938,9 +6938,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -6987,9 +6987,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -7036,9 +7036,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -7085,9 +7085,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -7134,9 +7134,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -7183,9 +7183,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -7232,9 +7232,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -7281,9 +7281,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -7330,9 +7330,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -7379,9 +7379,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -7428,9 +7428,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -7477,9 +7477,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -7526,9 +7526,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -7662,12 +7662,12 @@
         <v>HKD_YC1YRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="42" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -7690,9 +7690,9 @@
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor($K4,$J$2,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor($K4,Currency,$J$2,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="M4" s="38" t="e">
+      <c r="M4" s="38" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>qlLibor - Unhandled currency HKD</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -7754,9 +7754,9 @@
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M6" s="42" t="e">
+      <c r="M6" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -7941,9 +7941,9 @@
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M10" s="42" t="e">
+      <c r="M10" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -7999,9 +7999,9 @@
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" s="42" t="e">
+      <c r="M11" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -8057,9 +8057,9 @@
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" s="42" t="e">
+      <c r="M12" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -8115,9 +8115,9 @@
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" s="42" t="e">
+      <c r="M13" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -8173,9 +8173,9 @@
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" s="42" t="e">
+      <c r="M14" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -8231,9 +8231,9 @@
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M15" s="42" t="e">
+      <c r="M15" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -8283,9 +8283,9 @@
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M16" s="42" t="e">
+      <c r="M16" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -8332,9 +8332,9 @@
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M17" s="42" t="e">
+      <c r="M17" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -8381,9 +8381,9 @@
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M18" s="42" t="e">
+      <c r="M18" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -8430,9 +8430,9 @@
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M19" s="42" t="e">
+      <c r="M19" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -8479,9 +8479,9 @@
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M20" s="42" t="e">
+      <c r="M20" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -8528,9 +8528,9 @@
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M21" s="42" t="e">
+      <c r="M21" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -8577,9 +8577,9 @@
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M22" s="42" t="e">
+      <c r="M22" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -8626,9 +8626,9 @@
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M23" s="42" t="e">
+      <c r="M23" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -8675,9 +8675,9 @@
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M24" s="42" t="e">
+      <c r="M24" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -8724,9 +8724,9 @@
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M25" s="42" t="e">
+      <c r="M25" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -8773,9 +8773,9 @@
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M26" s="42" t="e">
+      <c r="M26" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -8822,9 +8822,9 @@
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M27" s="42" t="e">
+      <c r="M27" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -8871,9 +8871,9 @@
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M28" s="42" t="e">
+      <c r="M28" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -8920,9 +8920,9 @@
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M29" s="42" t="e">
+      <c r="M29" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -8969,9 +8969,9 @@
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M30" s="42" t="e">
+      <c r="M30" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -9018,9 +9018,9 @@
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M31" s="42" t="e">
+      <c r="M31" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -9067,9 +9067,9 @@
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M32" s="42" t="e">
+      <c r="M32" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -9116,9 +9116,9 @@
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M33" s="42" t="e">
+      <c r="M33" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -9165,9 +9165,9 @@
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M34" s="42" t="e">
+      <c r="M34" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -9214,9 +9214,9 @@
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M35" s="42" t="e">
+      <c r="M35" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -9263,9 +9263,9 @@
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M36" s="42" t="e">
+      <c r="M36" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -9312,9 +9312,9 @@
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M37" s="42" t="e">
+      <c r="M37" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -9361,9 +9361,9 @@
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M38" s="42" t="e">
+      <c r="M38" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -9410,9 +9410,9 @@
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M39" s="42" t="e">
+      <c r="M39" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -9459,9 +9459,9 @@
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M40" s="42" t="e">
+      <c r="M40" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -9508,9 +9508,9 @@
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M41" s="42" t="e">
+      <c r="M41" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -9557,9 +9557,9 @@
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M42" s="42" t="e">
+      <c r="M42" s="42" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -9694,12 +9694,12 @@
         <v>HKD_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="M7" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="M8" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -9939,7 +9939,7 @@
       </c>
       <c r="M9" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -10284,7 +10284,7 @@
       </c>
       <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -10787,7 +10787,7 @@
       </c>
       <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -10987,7 +10987,7 @@
       </c>
       <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -11237,7 +11237,7 @@
       </c>
       <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -11487,7 +11487,7 @@
       </c>
       <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -11772,12 +11772,12 @@
         <v>HKD_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -11802,7 +11802,7 @@
       </c>
       <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="M7" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L7)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N7" s="45"/>
     </row>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="M8" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L8)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N8" s="45"/>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="M9" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L9)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N9" s="45"/>
     </row>
@@ -12067,7 +12067,7 @@
       </c>
       <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -12303,7 +12303,7 @@
       </c>
       <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -12415,7 +12415,7 @@
       </c>
       <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -12665,7 +12665,7 @@
       </c>
       <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -13015,7 +13015,7 @@
       </c>
       <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -13265,7 +13265,7 @@
       </c>
       <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -13415,7 +13415,7 @@
       </c>
       <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -13850,12 +13850,12 @@
         <v>HKD_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -13944,7 +13944,7 @@
       </c>
       <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -14571,7 +14571,7 @@
       </c>
       <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -14718,7 +14718,7 @@
       </c>
       <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -14914,7 +14914,7 @@
       </c>
       <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -15012,7 +15012,7 @@
       </c>
       <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -15208,7 +15208,7 @@
       </c>
       <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -15257,7 +15257,7 @@
       </c>
       <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -15355,7 +15355,7 @@
       </c>
       <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -15649,7 +15649,7 @@
       </c>
       <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -15747,7 +15747,7 @@
       </c>
       <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N42" s="45"/>
     </row>
@@ -15881,12 +15881,12 @@
         <v>HKD_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="41" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" s="45"/>
     </row>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="M4" s="38" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L4)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N4" s="45"/>
     </row>
@@ -15975,7 +15975,7 @@
       </c>
       <c r="M6" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L6)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N6" s="45"/>
     </row>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="M10" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L10)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N10" s="45"/>
       <c r="P10" s="52" t="s">
@@ -16220,7 +16220,7 @@
       </c>
       <c r="M11" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L11)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N11" s="45"/>
       <c r="P11" s="55" t="s">
@@ -16278,7 +16278,7 @@
       </c>
       <c r="M12" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L12)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N12" s="45"/>
       <c r="P12" s="55" t="s">
@@ -16336,7 +16336,7 @@
       </c>
       <c r="M13" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L13)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N13" s="45"/>
       <c r="P13" s="55" t="s">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="M14" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L14)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N14" s="45"/>
       <c r="P14" s="57" t="s">
@@ -16452,7 +16452,7 @@
       </c>
       <c r="M15" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L15)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N15" s="45"/>
       <c r="P15" s="51"/>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="M16" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L16)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N16" s="45"/>
     </row>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="M17" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L17)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N17" s="45"/>
     </row>
@@ -16602,7 +16602,7 @@
       </c>
       <c r="M18" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L18)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N18" s="45"/>
     </row>
@@ -16651,7 +16651,7 @@
       </c>
       <c r="M19" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L19)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N19" s="45"/>
     </row>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="M20" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L20)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N20" s="45"/>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="M21" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L21)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N21" s="45"/>
     </row>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="M22" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L22)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N22" s="45"/>
     </row>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="M23" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L23)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N23" s="45"/>
     </row>
@@ -16896,7 +16896,7 @@
       </c>
       <c r="M24" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L24)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N24" s="45"/>
     </row>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="M25" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L25)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N25" s="45"/>
     </row>
@@ -16994,7 +16994,7 @@
       </c>
       <c r="M26" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L26)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N26" s="45"/>
     </row>
@@ -17043,7 +17043,7 @@
       </c>
       <c r="M27" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L27)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N27" s="45"/>
     </row>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="M28" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L28)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N28" s="45"/>
     </row>
@@ -17141,7 +17141,7 @@
       </c>
       <c r="M29" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L29)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N29" s="45"/>
     </row>
@@ -17190,7 +17190,7 @@
       </c>
       <c r="M30" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L30)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N30" s="45"/>
     </row>
@@ -17239,7 +17239,7 @@
       </c>
       <c r="M31" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L31)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N31" s="45"/>
     </row>
@@ -17288,7 +17288,7 @@
       </c>
       <c r="M32" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L32)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N32" s="45"/>
     </row>
@@ -17337,7 +17337,7 @@
       </c>
       <c r="M33" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L33)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N33" s="45"/>
     </row>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="M34" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L34)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N34" s="45"/>
     </row>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="M35" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L35)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N35" s="45"/>
     </row>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="M36" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L36)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N36" s="45"/>
     </row>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="M37" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L37)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N37" s="45"/>
     </row>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="M38" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L38)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N38" s="45"/>
     </row>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="M39" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L39)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N39" s="45"/>
     </row>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="M40" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L40)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N40" s="45"/>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="M41" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L41)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N41" s="45"/>
     </row>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="M42" s="42" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L42)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="N42" s="45"/>
     </row>
